--- a/Excel_Structure_Validation/Source_excel_files/to_ankhi.xlsx
+++ b/Excel_Structure_Validation/Source_excel_files/to_ankhi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H337845\Documents\Laptop to Drive\Studies\Python case studies\Python_Workspace\Problem_Excel_Structure_Validation\Source_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H337845\Documents\Laptop to Drive\Studies\Python case studies\Python_Workspace\Excel_Structure_Validation\Source_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Line_Prod_AP7" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
   <si>
     <t>FileName</t>
   </si>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A9" sqref="A9:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,119 +1036,39 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6000000471003</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>919.39</v>
-      </c>
-      <c r="E9" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F9">
-        <v>3000007</v>
-      </c>
-      <c r="G9">
-        <v>365.4</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6000000471004</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>920.39</v>
-      </c>
-      <c r="E10" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F10">
-        <v>3000008</v>
-      </c>
-      <c r="G10">
-        <v>1037.04</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6000000471005</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>921.39</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F11">
-        <v>3000009</v>
-      </c>
-      <c r="G11">
-        <v>502.88</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6000000471006</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>922.39</v>
-      </c>
-      <c r="E12" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F12">
-        <v>3000010</v>
-      </c>
-      <c r="G12">
-        <v>536.72</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6000000471007</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>923.39</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F13">
-        <v>3000011</v>
-      </c>
-      <c r="G13">
-        <v>119.48</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,73 +1325,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6000000471005</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>921.39</v>
-      </c>
-      <c r="E11" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F11">
-        <v>4000010</v>
-      </c>
-      <c r="G11">
-        <v>502.88</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6000000471006</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>922.39</v>
-      </c>
-      <c r="E12" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F12">
-        <v>4000011</v>
-      </c>
-      <c r="G12">
-        <v>536.72</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6000000471007</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>923.39</v>
-      </c>
-      <c r="E13" s="5">
-        <v>43917</v>
-      </c>
-      <c r="F13">
-        <v>4000012</v>
-      </c>
-      <c r="G13">
-        <v>119.48</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
